--- a/Project/LUMA/LUMA project.xlsx
+++ b/Project/LUMA/LUMA project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Github\Keval_Testing\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Github\Keval_Testing\Project\LUMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="319">
   <si>
     <t>Function ID</t>
   </si>
@@ -1332,6 +1332,51 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JVMZIw30l1LOmrwsSz8LTDlOp6jqBqT8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qtCDeqxViuQpUYSyZOg5_-toOj5RAHlv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17vADntTL1qNenAROT7iH8U86IUVeZgYz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GBaT4Qj0hJOWFiAuuOQ0RU-g4lqPiySA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ieKANj3lajSWYP09JTqGtXIJ5RAEAy4t/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ykNL3j3c5rBFWBjON031NCD8WPLJ7gLo/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Tt6cgaUlGvsrUqp8kwTYlw_9cvdV7HzE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CLpWzRsmqjXCRLcUON3zfN37S5M6f1cm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qjMuJbgUzyX1GE1i7LPtR2SHvp3xVCYt/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wBFHVmwggODlUZ-HvdEwJAlscygpZdQ5/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eXSWnQRMNyVI3HZiD-88sORwwDwUw4R6/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10OeRzr9I_jJmYaTyT-AFPFV707bcFu0J/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MV1nhwecOQzkizm8TOTGbAgOqfJRrozM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wY66R3gF5O-OFE8RrGhit5JkZklC7D2i/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kndI-28uM5ONa9CJqvTXddcld0Zx6H5r/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1735,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2183,7 +2230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="63" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>42</v>
       </c>
@@ -2634,7 +2681,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>121</v>
       </c>
@@ -5560,7 +5607,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="2:10" ht="186" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10" ht="209.25" x14ac:dyDescent="0.35">
       <c r="B72" s="1">
         <v>71</v>
       </c>
@@ -5811,7 +5858,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5905,7 +5952,9 @@
       <c r="K2" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L2" s="69"/>
+      <c r="L2" s="69" t="s">
+        <v>304</v>
+      </c>
       <c r="M2" s="30" t="s">
         <v>295</v>
       </c>
@@ -5944,7 +5993,9 @@
       <c r="K3" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L3" s="69"/>
+      <c r="L3" s="69" t="s">
+        <v>305</v>
+      </c>
       <c r="M3" s="30" t="s">
         <v>295</v>
       </c>
@@ -5983,7 +6034,9 @@
       <c r="K4" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="69" t="s">
+        <v>306</v>
+      </c>
       <c r="M4" s="30" t="s">
         <v>295</v>
       </c>
@@ -6022,7 +6075,9 @@
       <c r="K5" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L5" s="69"/>
+      <c r="L5" s="69" t="s">
+        <v>307</v>
+      </c>
       <c r="M5" s="30" t="s">
         <v>295</v>
       </c>
@@ -6061,7 +6116,9 @@
       <c r="K6" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L6" s="69"/>
+      <c r="L6" s="69" t="s">
+        <v>308</v>
+      </c>
       <c r="M6" s="30" t="s">
         <v>295</v>
       </c>
@@ -6100,7 +6157,9 @@
       <c r="K7" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L7" s="69"/>
+      <c r="L7" s="69" t="s">
+        <v>309</v>
+      </c>
       <c r="M7" s="30" t="s">
         <v>295</v>
       </c>
@@ -6139,7 +6198,9 @@
       <c r="K8" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L8" s="69"/>
+      <c r="L8" s="69" t="s">
+        <v>310</v>
+      </c>
       <c r="M8" s="30" t="s">
         <v>295</v>
       </c>
@@ -6178,7 +6239,9 @@
       <c r="K9" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L9" s="69"/>
+      <c r="L9" s="69" t="s">
+        <v>311</v>
+      </c>
       <c r="M9" s="30" t="s">
         <v>295</v>
       </c>
@@ -6217,7 +6280,9 @@
       <c r="K10" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L10" s="69"/>
+      <c r="L10" s="69" t="s">
+        <v>312</v>
+      </c>
       <c r="M10" s="30" t="s">
         <v>295</v>
       </c>
@@ -6256,12 +6321,14 @@
       <c r="K11" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L11" s="69"/>
+      <c r="L11" s="69" t="s">
+        <v>313</v>
+      </c>
       <c r="M11" s="30" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="372" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="395.25" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -6295,7 +6362,9 @@
       <c r="K12" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L12" s="69"/>
+      <c r="L12" s="69" t="s">
+        <v>314</v>
+      </c>
       <c r="M12" s="30" t="s">
         <v>295</v>
       </c>
@@ -6334,7 +6403,9 @@
       <c r="K13" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L13" s="69"/>
+      <c r="L13" s="69" t="s">
+        <v>315</v>
+      </c>
       <c r="M13" s="30" t="s">
         <v>295</v>
       </c>
@@ -6373,7 +6444,9 @@
       <c r="K14" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L14" s="69"/>
+      <c r="L14" s="69" t="s">
+        <v>316</v>
+      </c>
       <c r="M14" s="30" t="s">
         <v>295</v>
       </c>
@@ -6412,7 +6485,9 @@
       <c r="K15" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L15" s="69"/>
+      <c r="L15" s="69" t="s">
+        <v>317</v>
+      </c>
       <c r="M15" s="30" t="s">
         <v>295</v>
       </c>
@@ -6451,7 +6526,9 @@
       <c r="K16" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L16" s="69"/>
+      <c r="L16" s="69" t="s">
+        <v>317</v>
+      </c>
       <c r="M16" s="30" t="s">
         <v>295</v>
       </c>
@@ -6490,7 +6567,9 @@
       <c r="K17" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L17" s="69"/>
+      <c r="L17" s="69" t="s">
+        <v>318</v>
+      </c>
       <c r="M17" s="30" t="s">
         <v>295</v>
       </c>
@@ -6499,6 +6578,22 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="L2" r:id="rId3"/>
+    <hyperlink ref="L3" r:id="rId4"/>
+    <hyperlink ref="L4" r:id="rId5"/>
+    <hyperlink ref="L5" r:id="rId6"/>
+    <hyperlink ref="L6" r:id="rId7"/>
+    <hyperlink ref="L7" r:id="rId8"/>
+    <hyperlink ref="L8" r:id="rId9"/>
+    <hyperlink ref="L9" r:id="rId10"/>
+    <hyperlink ref="L10" r:id="rId11"/>
+    <hyperlink ref="L11" r:id="rId12"/>
+    <hyperlink ref="L12" r:id="rId13"/>
+    <hyperlink ref="L13" r:id="rId14"/>
+    <hyperlink ref="L14" r:id="rId15"/>
+    <hyperlink ref="L15" r:id="rId16"/>
+    <hyperlink ref="L16" r:id="rId17"/>
+    <hyperlink ref="L17" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7626,7 +7721,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="348.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="372" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>64</v>
       </c>
